--- a/3_Intermediate Excel.xlsx
+++ b/3_Intermediate Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/632ee06d642e1deb/Desktop/EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA ENGINEERING\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="11_F25DC773A252ABDACC1048E3815F5C925ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F40D12-4ACF-47D5-8300-68FF3467E3DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862739B-FDB4-44AD-8A69-C8703B2C36E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sorting" sheetId="1" r:id="rId1"/>
@@ -41,22 +41,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>Sort</t>
   </si>
@@ -314,6 +304,9 @@
   </si>
   <si>
     <t>Import from Notepad</t>
+  </si>
+  <si>
+    <t>Press Alt F1</t>
   </si>
 </sst>
 </file>
@@ -587,7 +580,17 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1589,8 +1592,9 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1624,12 +1628,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </a:blipFill>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,12 +1655,10 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1696,6 +1697,22 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Chart1!$C$3:$E$3</c:f>
@@ -1778,8 +1795,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1902,8 +1920,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1991,7 +2010,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="384"/>
+        <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
         <c:axId val="2092991551"/>
         <c:axId val="2092998207"/>
@@ -2021,14 +2040,15 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2059,7 +2079,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2073,12 +2096,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2089,8 +2107,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2130,8 +2149,9 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2150,11 +2170,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:schemeClr val="tx1"/>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -2174,8 +2190,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2218,13 +2235,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2667,6 +2678,338 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pie Chart'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pie Chart'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Qtr 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Qtr 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtr 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qtr 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pie Chart'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A535-403E-ACBC-652985F9355A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1895242224"/>
+        <c:axId val="1758857296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1895242224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1758857296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1758857296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895242224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2846,6 +3189,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -4891,6 +5240,555 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4936,15 +5834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>677284</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>281044</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168985</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5122,8 +6020,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7612380" y="198120"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7593330" y="205740"/>
+              <a:ext cx="4572000" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5153,6 +6051,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132049E7-9269-4FB9-818E-9B54C0A41637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5163,15 +6097,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5181,7 +6115,7 @@
                   <a14:compatExt spid="_x0000_s10241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA9D6D-B530-54AE-806F-C1DC22B979FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5202,23 +6136,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5398,29 +6319,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66F3BFE0-543B-42C1-AAC6-E8B7C0D36079}" name="Table2" displayName="Table2" ref="N4:Q13" totalsRowCount="1" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66F3BFE0-543B-42C1-AAC6-E8B7C0D36079}" name="Table2" displayName="Table2" ref="N4:Q13" totalsRowCount="1" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="N4:Q12" xr:uid="{66F3BFE0-543B-42C1-AAC6-E8B7C0D36079}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N5:Q12">
+  <sortState ref="N5:Q12">
     <sortCondition descending="1" ref="N4:N12"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{308FDAE4-EAE9-4910-9625-34DA70B843A5}" name="Top Products" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5DC75B2F-7809-42F9-808B-2B9300EF7EC6}" name="Part Number" totalsRowFunction="stdDev" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1317B8FE-40F3-49EE-83F8-86B4E4288A29}" name="Flight Range" totalsRowFunction="min" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{EC0D64D4-29E7-4024-A5BA-BBE04E4D7953}" name="Price" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{308FDAE4-EAE9-4910-9625-34DA70B843A5}" name="Top Products" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5DC75B2F-7809-42F9-808B-2B9300EF7EC6}" name="Part Number" totalsRowFunction="stdDev" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1317B8FE-40F3-49EE-83F8-86B4E4288A29}" name="Flight Range" totalsRowFunction="min" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{EC0D64D4-29E7-4024-A5BA-BBE04E4D7953}" name="Price" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{38035E47-4EE2-4503-899F-DB3D401E372B}" name="Table4" displayName="Table4" ref="E4:H14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{38035E47-4EE2-4503-899F-DB3D401E372B}" name="Table4" displayName="Table4" ref="E4:H14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="E4:H14" xr:uid="{38035E47-4EE2-4503-899F-DB3D401E372B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{578C1C22-7E4C-4005-B400-AEF31A330BE2}" name="Top Products" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{871C0C84-790B-45AA-B45B-F66FF4676AF5}" name="Part Number" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{78D2388C-8E7F-4B04-B5F6-16A17A274BEB}" name="Flight Range" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{19E49222-7FFB-4514-BE0C-DD58EE095A1F}" name="Price" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{578C1C22-7E4C-4005-B400-AEF31A330BE2}" name="Top Products" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{871C0C84-790B-45AA-B45B-F66FF4676AF5}" name="Part Number" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{78D2388C-8E7F-4B04-B5F6-16A17A274BEB}" name="Flight Range" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{19E49222-7FFB-4514-BE0C-DD58EE095A1F}" name="Price" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5689,51 +6610,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -5744,7 +6666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -5758,7 +6680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>1.2</v>
       </c>
@@ -5772,7 +6694,7 @@
         <v>9874</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2.5</v>
       </c>
@@ -5786,7 +6708,7 @@
         <v>7845</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>3.4</v>
       </c>
@@ -5800,7 +6722,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>4.5</v>
       </c>
@@ -5814,7 +6736,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>8.9</v>
       </c>
@@ -5828,7 +6750,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>9.1999999999999993</v>
       </c>
@@ -5843,7 +6765,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G14:H19">
+  <sortState ref="G14:H19">
     <sortCondition descending="1" ref="H14:H19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,28 +6774,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA4709A-CF3B-4909-8300-808012998E56}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>85</v>
       </c>
@@ -5891,15 +6814,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5915,25 +6838,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C571A-D9D9-4D82-B507-5A213672CDE7}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
@@ -5950,7 +6874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -5979,7 +6903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -6005,7 +6929,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -6031,7 +6955,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -6069,7 +6993,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -6107,7 +7031,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
@@ -6137,7 +7061,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -6167,7 +7091,7 @@
         <v>35.950000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -6197,7 +7121,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -6215,7 +7139,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -6236,13 +7160,13 @@
         <v>177.59999999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -6258,31 +7182,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8F5539-02AE-4B28-900D-B1FCAD2FE776}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -6299,7 +7224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -6316,7 +7241,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -6333,7 +7258,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -6350,7 +7275,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
@@ -6364,13 +7289,13 @@
         <v>35.950000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E9" s="19"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
@@ -6384,7 +7309,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
@@ -6398,13 +7323,13 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="20"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
@@ -6418,7 +7343,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E14" s="20" t="s">
         <v>34</v>
       </c>
@@ -6443,78 +7368,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FE062-A20E-4164-8491-CA0CD363E6B7}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -6527,21 +7453,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A783213-D540-46FD-84EB-AAB9D9EEFA5A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
         <v>58</v>
@@ -6550,7 +7477,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
         <v>59</v>
@@ -6563,7 +7490,7 @@
       </c>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>62</v>
       </c>
@@ -6577,7 +7504,7 @@
         <v>57890</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
@@ -6591,7 +7518,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>63</v>
       </c>
@@ -6605,51 +7532,53 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5730A3EB-B550-4F5F-813E-AEC8236DFE5E}">
-  <dimension ref="B2:C6"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>69</v>
       </c>
@@ -6657,7 +7586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
@@ -6665,7 +7594,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
@@ -6673,7 +7602,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
@@ -6681,12 +7610,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="29">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6697,11 +7631,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A6DB71-1568-4F54-A313-8D933B1A71BD}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6709,26 +7644,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ECF71E-05C0-4158-8CC3-7799C61524D0}">
-  <dimension ref="C9:F19"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="C9:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="147" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
         <v>75</v>
       </c>
@@ -6742,12 +7678,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>87</v>
@@ -6756,7 +7692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>63</v>
       </c>
@@ -6770,7 +7706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>79</v>
       </c>
@@ -6784,7 +7720,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>80</v>
       </c>
@@ -6798,7 +7734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>81</v>
       </c>
@@ -6812,12 +7748,34 @@
         <v>-89</v>
       </c>
     </row>
+    <row r="20" spans="3:6" ht="117" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:6" ht="105" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{F39CFB6F-7036-44CE-9224-25E83657E428}">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1" xr2:uid="{5A42035D-DB10-4404-AD24-5319663F9122}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!E15:E19</xm:f>
+              <xm:sqref>E20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!F15:F19</xm:f>
+              <xm:sqref>F20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{39029D9A-B9EC-4E80-89C5-3D4EBCB43539}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6829,7 +7787,55 @@
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>'Sparkline Chart'!D15:D19</xm:f>
-              <xm:sqref>D13</xm:sqref>
+              <xm:sqref>D20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D1B35DB0-002E-4B65-A611-A695E30EE2F4}">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!D15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!D16:D16</xm:f>
+              <xm:sqref>E16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!D17:D17</xm:f>
+              <xm:sqref>E17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!D18:D18</xm:f>
+              <xm:sqref>E18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!D19:D19</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" displayXAxis="1" xr2:uid="{7ACE8DC9-1149-440C-B813-4B5FAEC874A8}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sparkline Chart'!E15:E19</xm:f>
+              <xm:sqref>E13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6849,7 +7855,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" negative="1" displayXAxis="1" xr2:uid="{7ACE8DC9-1149-440C-B813-4B5FAEC874A8}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{F39CFB6F-7036-44CE-9224-25E83657E428}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6860,8 +7866,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Sparkline Chart'!E15:E19</xm:f>
-              <xm:sqref>E13</xm:sqref>
+              <xm:f>'Sparkline Chart'!D15:D19</xm:f>
+              <xm:sqref>D13</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6873,20 +7879,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BB82A9-8A0A-4454-8EB8-53CD21F56784}">
-  <dimension ref="D3:L13"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="D3:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
       <c r="L3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>10</v>
       </c>
@@ -6908,8 +7915,11 @@
       <c r="L4">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>20</v>
       </c>
@@ -6928,8 +7938,11 @@
       <c r="I5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>56</v>
       </c>
@@ -6948,8 +7961,11 @@
       <c r="I6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>40</v>
       </c>
@@ -6968,8 +7984,11 @@
       <c r="I7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>50</v>
       </c>
@@ -6988,8 +8007,11 @@
       <c r="I8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>60</v>
       </c>
@@ -7008,8 +8030,11 @@
       <c r="I9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>70</v>
       </c>
@@ -7028,8 +8053,11 @@
       <c r="I10">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>80</v>
       </c>
@@ -7048,8 +8076,11 @@
       <c r="I11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>90</v>
       </c>
@@ -7068,8 +8099,11 @@
       <c r="I12">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>100</v>
       </c>
@@ -7091,7 +8125,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D13">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7105,7 +8139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7119,7 +8153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F13">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7129,12 +8163,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13">
-    <cfRule type="iconSet" priority="4">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7143,7 +8177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H13">
-    <cfRule type="iconSet" priority="3">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7152,8 +8186,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I13">
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N12">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3TrafficLights2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
